--- a/biology/Médecine/École_Érasistratide/École_Érasistratide.xlsx
+++ b/biology/Médecine/École_Érasistratide/École_Érasistratide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cole_%C3%89rasistratide</t>
+          <t>École_Érasistratide</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'école Érasistratide était une école médicale antique, qui diffusa et défendit les thèses de son fondateur Érasistrate de Céos. Son centre le plus actif se situait à Smyrne en Asie mineure.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cole_%C3%89rasistratide</t>
+          <t>École_Érasistratide</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>La défense doctrinale du fondateur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils tentèrent de défendre le dogme d'Érasistrate qui pensait que les artères ne véhiculaient que le "pneuma" (Πνεμα).
-Pour eux, le sang qui pouvait s'échapper d'une artère coupée provenait du reste du corps, et par capillarité trouvait moyen d'emprunter par accident les canaux artériels[1].
-Les Érasistratéens précisent aussi que le corps humain ressemble à une sorte d'"outre" remplie - ou une sorte d'objet flexible - qui, lorsqu’elle est percée, laisse s’échapper à travers elle le souffle (Πνεuμα) et l’humeur[2].
+Pour eux, le sang qui pouvait s'échapper d'une artère coupée provenait du reste du corps, et par capillarité trouvait moyen d'emprunter par accident les canaux artériels.
+Les Érasistratéens précisent aussi que le corps humain ressemble à une sorte d'"outre" remplie - ou une sorte d'objet flexible - qui, lorsqu’elle est percée, laisse s’échapper à travers elle le souffle (Πνεuμα) et l’humeur.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89cole_%C3%89rasistratide</t>
+          <t>École_Érasistratide</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,16 +558,52 @@
           <t>Ses principaux membres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Démétrios d'Apamée, médecin à Alexandrie exerçant à une date inconnue entre le IIIe et Ier siècle av. J.-C.[3].
-Apollophane (médecin) de Seleucie, médecin officiel à la cour des rois Seleucos II, Antiochos III " le grand "[4].
-Artémidore de Sidè (en exercice vers le II/Ier siècle av. J.-C. ?)[5].
-Hikésios (de Smyrne ?), actif vers le Ier siècle av. J.-C.[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Démétrios d'Apamée, médecin à Alexandrie exerçant à une date inconnue entre le IIIe et Ier siècle av. J.-C..
+Apollophane (médecin) de Seleucie, médecin officiel à la cour des rois Seleucos II, Antiochos III " le grand ".
+Artémidore de Sidè (en exercice vers le II/Ier siècle av. J.-C. ?).
+Hikésios (de Smyrne ?), actif vers le Ier siècle av. J.-C..
 Ménodoros (ami et collègue d'Hikésos).
-Hermogène de Smyrne, médecin, historien et géographe[7]...
-Les axes de recherche de l'école d'Érasistrate
-Les plus marquants disciples de la "secte" médicale d'Érasistrate ont enrichi et développé l'activité initiée par leur fondateur.
+Hermogène de Smyrne, médecin, historien et géographe...</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>École_Érasistratide</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cole_%C3%89rasistratide</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ses principaux membres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Les axes de recherche de l'école d'Érasistrate</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plus marquants disciples de la "secte" médicale d'Érasistrate ont enrichi et développé l'activité initiée par leur fondateur.
 Quelques écrivains antiques tels Galien ou Pline nous donnent quelques précisions à ce sujet.
 La recherche en pharmacopée notamment végétale, les études gynécologiques, les analyses des maladies semblent avoir fait partie des occupations des disciples d'Érasistrate.
 L'école semble ainsi avoir perpétué l’éclectisme médical sans exclusion.
